--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/item.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/item.xlsx
@@ -10,11 +10,12 @@
     <sheet name="item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t xml:space="preserve">name </t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -90,43 +91,166 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">NUM </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低级别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天可使用次数</t>
+  </si>
+  <si>
+    <t>堆叠上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱的奖励列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成/兑换需要数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大镶嵌宝石数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxGem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyPrice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buyType </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1宝石2金币</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1宝石2金币</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1角色2怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">minLevel </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>TEXT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NUM </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>#id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>品级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低级别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用条件</t>
+    <t>消耗品增益类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品增益数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石增益ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药水</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -134,26 +258,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每天可使用次数</t>
+    <t>NUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备属性ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipAttId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">needCount </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_20001_1,4_70001_1_3_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换券</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_10001_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成/兑换列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>componentItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置装备列表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>堆叠上限</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱的奖励列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成/兑换需要数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大镶嵌宝石数</t>
+    <t>合成该装备需要的道具</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -161,175 +342,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>maxGem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>durability</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>part</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyPrice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">buyType </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1宝石2金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1宝石2金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1角色2怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">minLevel </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品增益类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品增益数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石增益ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药水</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备属性ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipAttId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">needCount </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetItem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_70001_1_3_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_20001_1,4_70001_1_3_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换券</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_10001_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成/兑换列表</t>
+    <t>3_2001_20,1_2_1000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_70001_1_5_2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1273,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,20 +1311,21 @@
     <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="10.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,82 +1333,85 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -1419,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
@@ -1431,10 +1452,10 @@
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>9</v>
@@ -1443,125 +1464,131 @@
         <v>10</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1599,7 +1626,7 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Q4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
@@ -1623,13 +1650,16 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1667,7 +1697,7 @@
       <c r="P5" s="1">
         <v>100</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1">
@@ -1691,13 +1721,16 @@
       <c r="AA5" s="1">
         <v>0</v>
       </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1735,15 +1768,15 @@
       <c r="P6" s="1">
         <v>100</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="1">
         <v>50</v>
       </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
@@ -1762,13 +1795,16 @@
       <c r="AA6" s="1">
         <v>0</v>
       </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>30001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1806,7 +1842,7 @@
       <c r="P7" s="1">
         <v>100</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1">
@@ -1816,11 +1852,11 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>3001</v>
       </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -1830,13 +1866,16 @@
       <c r="AA7" s="1">
         <v>0</v>
       </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>40001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1866,19 +1905,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>3001</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1901,13 +1937,16 @@
       <c r="AA8" s="1">
         <v>0</v>
       </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>40002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1937,22 +1976,19 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>3001</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
+        <v>10002</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -1975,13 +2011,16 @@
       <c r="AA9" s="1">
         <v>0</v>
       </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>50001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2019,18 +2058,18 @@
       <c r="P10" s="1">
         <v>100</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Q10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
         <v>3</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>100</v>
       </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
@@ -2043,19 +2082,22 @@
       <c r="AA10" s="1">
         <v>0</v>
       </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>60001</v>
+        <v>10003</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2087,14 +2129,14 @@
       <c r="P11" s="1">
         <v>100</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1</v>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -2114,13 +2156,16 @@
       <c r="AA11" s="1">
         <v>0</v>
       </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>70001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2158,8 +2203,11 @@
       <c r="P12" s="1">
         <v>100</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2171,15 +2219,18 @@
         <v>0</v>
       </c>
       <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>5</v>
       </c>
-      <c r="Y12" s="1">
-        <v>1</v>
-      </c>
       <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
         <v>100</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>1001</v>
       </c>
     </row>

--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/item.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/item.xlsx
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
